--- a/data/pca/factorExposure/factorExposure_2019-01-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1118132549680072</v>
+        <v>-0.06739842690624903</v>
       </c>
       <c r="C2">
-        <v>0.01564282969618536</v>
+        <v>-0.03250766780962881</v>
       </c>
       <c r="D2">
-        <v>0.04453267798760517</v>
+        <v>-0.01841011142034724</v>
       </c>
       <c r="E2">
-        <v>0.06801928249197969</v>
+        <v>-0.03985531496391842</v>
       </c>
       <c r="F2">
-        <v>-0.1238829923697462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1350474048693092</v>
+      </c>
+      <c r="G2">
+        <v>0.06892227057342459</v>
+      </c>
+      <c r="H2">
+        <v>-0.04762053034869401</v>
+      </c>
+      <c r="I2">
+        <v>0.07450743459178133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2199393250010702</v>
+        <v>-0.1608013980301973</v>
       </c>
       <c r="C3">
-        <v>0.1431923208191415</v>
+        <v>-0.1057523690354637</v>
       </c>
       <c r="D3">
-        <v>-0.04091922093856946</v>
+        <v>0.004530735329328513</v>
       </c>
       <c r="E3">
-        <v>0.06176692031188902</v>
+        <v>0.001952373964130298</v>
       </c>
       <c r="F3">
-        <v>-0.345380516781882</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3766353693550382</v>
+      </c>
+      <c r="G3">
+        <v>0.2721481639168477</v>
+      </c>
+      <c r="H3">
+        <v>-0.06057030540498971</v>
+      </c>
+      <c r="I3">
+        <v>0.3337765535845446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09712874762733344</v>
+        <v>-0.07237282451174443</v>
       </c>
       <c r="C4">
-        <v>0.04704877612862554</v>
+        <v>-0.04802494870612819</v>
       </c>
       <c r="D4">
-        <v>0.03399701941994378</v>
+        <v>0.01509648800322624</v>
       </c>
       <c r="E4">
-        <v>0.008027423445468872</v>
+        <v>-0.04108964908194367</v>
       </c>
       <c r="F4">
-        <v>-0.07478379250489921</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07969601321672432</v>
+      </c>
+      <c r="G4">
+        <v>0.02850399377055532</v>
+      </c>
+      <c r="H4">
+        <v>-0.04439450324694594</v>
+      </c>
+      <c r="I4">
+        <v>0.04215670766934262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.02072376153866911</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.01052834507485713</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.00478407413360621</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005604674038600174</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.007594840129247106</v>
+      </c>
+      <c r="G6">
+        <v>-0.01210761958998404</v>
+      </c>
+      <c r="H6">
+        <v>0.01991650298831014</v>
+      </c>
+      <c r="I6">
+        <v>-0.01538286723254184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04502668029481355</v>
+        <v>-0.03479643241248356</v>
       </c>
       <c r="C7">
-        <v>0.02200779953432976</v>
+        <v>-0.01864559815490323</v>
       </c>
       <c r="D7">
-        <v>0.03223915543331268</v>
+        <v>0.03608234543024836</v>
       </c>
       <c r="E7">
-        <v>0.04501195637970084</v>
+        <v>-0.02817117509579705</v>
       </c>
       <c r="F7">
-        <v>-0.05036569731379742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04866692504431207</v>
+      </c>
+      <c r="G7">
+        <v>0.0527703496339106</v>
+      </c>
+      <c r="H7">
+        <v>0.005003419883507537</v>
+      </c>
+      <c r="I7">
+        <v>0.01764795878485926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.05055430539977529</v>
+        <v>-0.02870032616785822</v>
       </c>
       <c r="C8">
-        <v>0.05660183775010384</v>
+        <v>-0.05148581050892148</v>
       </c>
       <c r="D8">
-        <v>0.01052768380658917</v>
+        <v>0.01196847682254135</v>
       </c>
       <c r="E8">
-        <v>0.001884076506490735</v>
+        <v>-0.02167226228266</v>
       </c>
       <c r="F8">
-        <v>-0.07402492684959151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07173889312624399</v>
+      </c>
+      <c r="G8">
+        <v>0.04670274908219131</v>
+      </c>
+      <c r="H8">
+        <v>-0.03619687686576395</v>
+      </c>
+      <c r="I8">
+        <v>0.0527955645276592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08419685004196892</v>
+        <v>-0.06134526031012704</v>
       </c>
       <c r="C9">
-        <v>0.04171423854586099</v>
+        <v>-0.0438188761565084</v>
       </c>
       <c r="D9">
-        <v>0.04095468651511379</v>
+        <v>0.01879234499204203</v>
       </c>
       <c r="E9">
-        <v>-0.009722931963584388</v>
+        <v>-0.0359782694998453</v>
       </c>
       <c r="F9">
-        <v>-0.06634553599413663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.07878650231090642</v>
+      </c>
+      <c r="G9">
+        <v>0.02683903615447645</v>
+      </c>
+      <c r="H9">
+        <v>-0.04062029387364375</v>
+      </c>
+      <c r="I9">
+        <v>0.01839850143333992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02605500386952593</v>
+        <v>-0.0365705587083684</v>
       </c>
       <c r="C10">
-        <v>-0.1649279985727995</v>
+        <v>0.1616204941229268</v>
       </c>
       <c r="D10">
-        <v>-0.02661396084354738</v>
+        <v>-0.009189211512886162</v>
       </c>
       <c r="E10">
-        <v>0.04850539092147836</v>
+        <v>0.03788101836330312</v>
       </c>
       <c r="F10">
-        <v>-0.05167861033186913</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.0647264109348733</v>
+      </c>
+      <c r="G10">
+        <v>0.01491841146633275</v>
+      </c>
+      <c r="H10">
+        <v>-0.03573159178072247</v>
+      </c>
+      <c r="I10">
+        <v>0.09204349347431655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05904663767967962</v>
+        <v>-0.0492706278949348</v>
       </c>
       <c r="C11">
-        <v>0.01642698426653029</v>
+        <v>-0.0322325381211666</v>
       </c>
       <c r="D11">
-        <v>-0.004121398010724841</v>
+        <v>-0.006018036440100325</v>
       </c>
       <c r="E11">
-        <v>0.02304802145051747</v>
+        <v>-0.01064294221814897</v>
       </c>
       <c r="F11">
-        <v>-0.03679596203991261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03767774765619708</v>
+      </c>
+      <c r="G11">
+        <v>0.002954157255243468</v>
+      </c>
+      <c r="H11">
+        <v>-0.01433883088500733</v>
+      </c>
+      <c r="I11">
+        <v>0.003122093195339943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04655932598964091</v>
+        <v>-0.0443328369053712</v>
       </c>
       <c r="C12">
-        <v>0.02005979427225002</v>
+        <v>-0.0291385800444111</v>
       </c>
       <c r="D12">
-        <v>-0.001045153340656296</v>
+        <v>0.005193707484227157</v>
       </c>
       <c r="E12">
-        <v>0.002613827413549162</v>
+        <v>-0.01135941632127066</v>
       </c>
       <c r="F12">
-        <v>-0.02963485992289835</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01477548767669072</v>
+      </c>
+      <c r="G12">
+        <v>0.004501664287277445</v>
+      </c>
+      <c r="H12">
+        <v>-0.003373072507042969</v>
+      </c>
+      <c r="I12">
+        <v>-0.0001621765464814699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.0637912144825671</v>
+        <v>-0.043721380862427</v>
       </c>
       <c r="C13">
-        <v>0.03089064220462737</v>
+        <v>-0.02615534829178177</v>
       </c>
       <c r="D13">
-        <v>-0.003139213288471642</v>
+        <v>-0.0153742386283085</v>
       </c>
       <c r="E13">
-        <v>0.05295154100864549</v>
+        <v>-0.009491410395661202</v>
       </c>
       <c r="F13">
-        <v>-0.100331055883164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.1034390533413868</v>
+      </c>
+      <c r="G13">
+        <v>0.04108516047767771</v>
+      </c>
+      <c r="H13">
+        <v>-0.02659301362526053</v>
+      </c>
+      <c r="I13">
+        <v>0.03463099030621666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03497895613928511</v>
+        <v>-0.02705113936532124</v>
       </c>
       <c r="C14">
-        <v>0.02638742721313647</v>
+        <v>-0.02097092871195316</v>
       </c>
       <c r="D14">
-        <v>0.0278530797194712</v>
+        <v>0.005885890859432313</v>
       </c>
       <c r="E14">
-        <v>0.02431846074594077</v>
+        <v>-0.02770355909947711</v>
       </c>
       <c r="F14">
-        <v>-0.01980387544432982</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03523942597177958</v>
+      </c>
+      <c r="G14">
+        <v>0.05747390644601533</v>
+      </c>
+      <c r="H14">
+        <v>-0.01106794818573882</v>
+      </c>
+      <c r="I14">
+        <v>0.01255742565758692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04961172470253541</v>
+        <v>-0.04233176929966237</v>
       </c>
       <c r="C16">
-        <v>0.02539279915084486</v>
+        <v>-0.0362929907268396</v>
       </c>
       <c r="D16">
-        <v>-0.00580278067712236</v>
+        <v>-0.0004560338293999855</v>
       </c>
       <c r="E16">
-        <v>0.01135345006488718</v>
+        <v>-0.009131854551071135</v>
       </c>
       <c r="F16">
-        <v>-0.03204945510517465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03428030689310499</v>
+      </c>
+      <c r="G16">
+        <v>0.00410811169970246</v>
+      </c>
+      <c r="H16">
+        <v>-0.004288165193849963</v>
+      </c>
+      <c r="I16">
+        <v>0.009128133807269996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06372020095236039</v>
+        <v>-0.0515179529081941</v>
       </c>
       <c r="C19">
-        <v>0.04860996753359575</v>
+        <v>-0.04640183442484836</v>
       </c>
       <c r="D19">
-        <v>0.004691847951316118</v>
+        <v>-0.001587565872423568</v>
       </c>
       <c r="E19">
-        <v>0.02553435990487196</v>
+        <v>-0.02367490767012904</v>
       </c>
       <c r="F19">
-        <v>-0.08286007735523311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09171523903731559</v>
+      </c>
+      <c r="G19">
+        <v>0.06347518947921185</v>
+      </c>
+      <c r="H19">
+        <v>-0.007344965871739541</v>
+      </c>
+      <c r="I19">
+        <v>0.05139402138267059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03995427773876762</v>
+        <v>-0.01902248062109655</v>
       </c>
       <c r="C20">
-        <v>0.04072264022326195</v>
+        <v>-0.02993628637959768</v>
       </c>
       <c r="D20">
-        <v>0.018807359288853</v>
+        <v>0.006071465310674594</v>
       </c>
       <c r="E20">
-        <v>0.01350623718299233</v>
+        <v>-0.02223253474552282</v>
       </c>
       <c r="F20">
-        <v>-0.06442271671791036</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06347792307347312</v>
+      </c>
+      <c r="G20">
+        <v>0.06063342888601603</v>
+      </c>
+      <c r="H20">
+        <v>-0.004308802246355456</v>
+      </c>
+      <c r="I20">
+        <v>0.05464360588894155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03331742845619973</v>
+        <v>-0.03218612530208731</v>
       </c>
       <c r="C21">
-        <v>0.03547577579866756</v>
+        <v>-0.02951475146278795</v>
       </c>
       <c r="D21">
-        <v>0.007213155342926302</v>
+        <v>0.01223462980454954</v>
       </c>
       <c r="E21">
-        <v>0.05445546680151575</v>
+        <v>-0.007606937218398314</v>
       </c>
       <c r="F21">
-        <v>-0.0926554920075667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.08035452978846466</v>
+      </c>
+      <c r="G21">
+        <v>0.02815530011422314</v>
+      </c>
+      <c r="H21">
+        <v>-0.04459031709886485</v>
+      </c>
+      <c r="I21">
+        <v>-0.01353379344765661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05128856599354505</v>
+        <v>-0.04182039929848694</v>
       </c>
       <c r="C24">
-        <v>0.02151669302750879</v>
+        <v>-0.02967901984176597</v>
       </c>
       <c r="D24">
-        <v>-0.001546229855244167</v>
+        <v>0.0001107043244891892</v>
       </c>
       <c r="E24">
-        <v>0.01195697832696927</v>
+        <v>-0.01141452897097361</v>
       </c>
       <c r="F24">
-        <v>-0.04194861146858523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.0381684283122313</v>
+      </c>
+      <c r="G24">
+        <v>0.002532498775028259</v>
+      </c>
+      <c r="H24">
+        <v>-0.006308323429904663</v>
+      </c>
+      <c r="I24">
+        <v>0.004025045919163086</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05243453275056613</v>
+        <v>-0.04811660416429791</v>
       </c>
       <c r="C25">
-        <v>0.01477209819662057</v>
+        <v>-0.02616575421768629</v>
       </c>
       <c r="D25">
-        <v>-0.002157554340177179</v>
+        <v>-0.0008560708041621608</v>
       </c>
       <c r="E25">
-        <v>0.01587430294774291</v>
+        <v>-0.009559780626613211</v>
       </c>
       <c r="F25">
-        <v>-0.03817230020490198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04343834153234796</v>
+      </c>
+      <c r="G25">
+        <v>0.003195154381002741</v>
+      </c>
+      <c r="H25">
+        <v>-0.01248903201321073</v>
+      </c>
+      <c r="I25">
+        <v>-0.002900001783877895</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02318268157143491</v>
+        <v>-0.01770802905667646</v>
       </c>
       <c r="C26">
-        <v>0.03313170723783247</v>
+        <v>-0.02655593256779402</v>
       </c>
       <c r="D26">
-        <v>0.007503400536759388</v>
+        <v>-0.004546581698475286</v>
       </c>
       <c r="E26">
-        <v>0.04050881199598629</v>
+        <v>-0.002673856381716247</v>
       </c>
       <c r="F26">
-        <v>-0.02225645650374007</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04268163147876043</v>
+      </c>
+      <c r="G26">
+        <v>0.03825554824950395</v>
+      </c>
+      <c r="H26">
+        <v>-0.01067701859960443</v>
+      </c>
+      <c r="I26">
+        <v>0.004123030826757819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.12171582033777</v>
+        <v>-0.07288844899433689</v>
       </c>
       <c r="C27">
-        <v>0.03403629671636601</v>
+        <v>-0.02789071196362093</v>
       </c>
       <c r="D27">
-        <v>0.02149496194400883</v>
+        <v>0.004729908950788047</v>
       </c>
       <c r="E27">
-        <v>0.01350571914545432</v>
+        <v>-0.0357128061602404</v>
       </c>
       <c r="F27">
-        <v>-0.08212556992175538</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.06423438614369294</v>
+      </c>
+      <c r="G27">
+        <v>0.01672128607606354</v>
+      </c>
+      <c r="H27">
+        <v>-0.02410899902917523</v>
+      </c>
+      <c r="I27">
+        <v>0.03511843499108959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.02353252250904377</v>
+        <v>-0.05391174623973495</v>
       </c>
       <c r="C28">
-        <v>-0.247698190371883</v>
+        <v>0.2409087901318628</v>
       </c>
       <c r="D28">
-        <v>-0.03355094224300285</v>
+        <v>-0.004619240780039186</v>
       </c>
       <c r="E28">
-        <v>0.02807674834805044</v>
+        <v>0.05240276419233601</v>
       </c>
       <c r="F28">
-        <v>-0.03050106987952498</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.05329672802405887</v>
+      </c>
+      <c r="G28">
+        <v>0.01266726021149739</v>
+      </c>
+      <c r="H28">
+        <v>-0.04157082026494991</v>
+      </c>
+      <c r="I28">
+        <v>0.1423141902781117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02790334507832421</v>
+        <v>-0.02357868520897019</v>
       </c>
       <c r="C29">
-        <v>0.02578111870202622</v>
+        <v>-0.01858308114175057</v>
       </c>
       <c r="D29">
-        <v>0.03301348254702433</v>
+        <v>0.009241447667363938</v>
       </c>
       <c r="E29">
-        <v>0.01656081820048089</v>
+        <v>-0.0286385971295703</v>
       </c>
       <c r="F29">
-        <v>-0.02415701470628394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03132827970424556</v>
+      </c>
+      <c r="G29">
+        <v>0.05658464368442134</v>
+      </c>
+      <c r="H29">
+        <v>-0.01555317117236487</v>
+      </c>
+      <c r="I29">
+        <v>0.001327199962350684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1121588525934222</v>
+        <v>-0.08937820054719559</v>
       </c>
       <c r="C30">
-        <v>0.02450306139440028</v>
+        <v>-0.04997308445137381</v>
       </c>
       <c r="D30">
-        <v>0.03018607572932275</v>
+        <v>-0.03762054293336448</v>
       </c>
       <c r="E30">
-        <v>0.04891598865531533</v>
+        <v>-0.03350335086596064</v>
       </c>
       <c r="F30">
-        <v>-0.09656960130317055</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1045569551641851</v>
+      </c>
+      <c r="G30">
+        <v>0.02114885188380883</v>
+      </c>
+      <c r="H30">
+        <v>0.009587170057837583</v>
+      </c>
+      <c r="I30">
+        <v>-0.002611505308162151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06965012305625878</v>
+        <v>-0.0606589323641472</v>
       </c>
       <c r="C31">
-        <v>0.02148158675068711</v>
+        <v>-0.02162195696155149</v>
       </c>
       <c r="D31">
-        <v>0.01778837241740914</v>
+        <v>-0.01003733725175802</v>
       </c>
       <c r="E31">
-        <v>0.04519025526584064</v>
+        <v>-0.02417964165094307</v>
       </c>
       <c r="F31">
-        <v>0.04635317877675624</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.003373830579884404</v>
+      </c>
+      <c r="G31">
+        <v>0.04621047395555322</v>
+      </c>
+      <c r="H31">
+        <v>-0.0295366927243264</v>
+      </c>
+      <c r="I31">
+        <v>0.01472720880815408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.07126494634670517</v>
+        <v>-0.04260469998335636</v>
       </c>
       <c r="C32">
-        <v>0.04195775542043741</v>
+        <v>-0.04551753897291606</v>
       </c>
       <c r="D32">
-        <v>0.02536204465200531</v>
+        <v>0.01537898677784265</v>
       </c>
       <c r="E32">
-        <v>0.03287009412086424</v>
+        <v>-0.03730193623178284</v>
       </c>
       <c r="F32">
-        <v>-0.08957671966908794</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08320928475433043</v>
+      </c>
+      <c r="G32">
+        <v>0.04281872595833663</v>
+      </c>
+      <c r="H32">
+        <v>-0.02113793344167104</v>
+      </c>
+      <c r="I32">
+        <v>0.04142159664385052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06854691872488833</v>
+        <v>-0.05679869921116721</v>
       </c>
       <c r="C33">
-        <v>0.05875161982744434</v>
+        <v>-0.05402353923563994</v>
       </c>
       <c r="D33">
-        <v>0.01636670242111775</v>
+        <v>-0.01892752935770437</v>
       </c>
       <c r="E33">
-        <v>0.05040702229072792</v>
+        <v>-0.01660846185315352</v>
       </c>
       <c r="F33">
-        <v>-0.05730178245228183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07347024634751376</v>
+      </c>
+      <c r="G33">
+        <v>0.04374472610549891</v>
+      </c>
+      <c r="H33">
+        <v>-0.03605946271193596</v>
+      </c>
+      <c r="I33">
+        <v>0.006189236490855694</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05078140510105069</v>
+        <v>-0.04349337673696798</v>
       </c>
       <c r="C34">
-        <v>0.0226747172171318</v>
+        <v>-0.03470952927764515</v>
       </c>
       <c r="D34">
-        <v>0.004270512057489859</v>
+        <v>0.004767066337146498</v>
       </c>
       <c r="E34">
-        <v>0.01073616938581196</v>
+        <v>-0.01842574392965114</v>
       </c>
       <c r="F34">
-        <v>-0.02689915678958269</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03312436756669009</v>
+      </c>
+      <c r="G34">
+        <v>0.008600044853531275</v>
+      </c>
+      <c r="H34">
+        <v>-0.007571438113249817</v>
+      </c>
+      <c r="I34">
+        <v>0.004501489375494967</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01654704113469376</v>
+        <v>-0.01598446196859592</v>
       </c>
       <c r="C36">
-        <v>0.003809381124425111</v>
+        <v>-0.00421448439433933</v>
       </c>
       <c r="D36">
-        <v>0.01294828424004301</v>
+        <v>0.004632725577083753</v>
       </c>
       <c r="E36">
-        <v>0.01275110964099018</v>
+        <v>-0.01008447436455546</v>
       </c>
       <c r="F36">
-        <v>-0.01472555655608301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02438024182271039</v>
+      </c>
+      <c r="G36">
+        <v>0.04032154715703183</v>
+      </c>
+      <c r="H36">
+        <v>-0.01684280337548203</v>
+      </c>
+      <c r="I36">
+        <v>-0.007777518925586996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.0456818252681933</v>
+        <v>-0.0354467877889154</v>
       </c>
       <c r="C38">
-        <v>0.02354073480276894</v>
+        <v>-0.01613537103565194</v>
       </c>
       <c r="D38">
-        <v>0.02107717363324605</v>
+        <v>0.00404123712771026</v>
       </c>
       <c r="E38">
-        <v>0.002456873407814029</v>
+        <v>-0.01244459115924042</v>
       </c>
       <c r="F38">
-        <v>-0.02575187321431132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04851594054363757</v>
+      </c>
+      <c r="G38">
+        <v>0.02579815486892292</v>
+      </c>
+      <c r="H38">
+        <v>-0.02635623945260922</v>
+      </c>
+      <c r="I38">
+        <v>-0.01625532156888811</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07097274435398097</v>
+        <v>-0.05373514052338385</v>
       </c>
       <c r="C39">
-        <v>0.02707462432151174</v>
+        <v>-0.04697739121590915</v>
       </c>
       <c r="D39">
-        <v>0.006447531889959016</v>
+        <v>-0.005112481626649035</v>
       </c>
       <c r="E39">
-        <v>0.02825150517941238</v>
+        <v>-0.01970573676696986</v>
       </c>
       <c r="F39">
-        <v>-0.0292850380444683</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05483960425599949</v>
+      </c>
+      <c r="G39">
+        <v>0.00306751555621523</v>
+      </c>
+      <c r="H39">
+        <v>-0.02083631509947648</v>
+      </c>
+      <c r="I39">
+        <v>-0.02240284673483534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07951012280503743</v>
+        <v>-0.05556326855053211</v>
       </c>
       <c r="C40">
-        <v>0.0422420086706862</v>
+        <v>-0.04205985783094101</v>
       </c>
       <c r="D40">
-        <v>0.01118510249535426</v>
+        <v>-0.0207991289955947</v>
       </c>
       <c r="E40">
-        <v>0.02942769090025658</v>
+        <v>-0.02547841544652231</v>
       </c>
       <c r="F40">
-        <v>-0.1058006126875675</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.094809805161799</v>
+      </c>
+      <c r="G40">
+        <v>0.04181600227232873</v>
+      </c>
+      <c r="H40">
+        <v>-0.0260993306536152</v>
+      </c>
+      <c r="I40">
+        <v>0.06387553750794212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.0005341038363896053</v>
+        <v>-0.003351796760451872</v>
       </c>
       <c r="C41">
-        <v>0.03354700702163553</v>
+        <v>-0.01155052117687213</v>
       </c>
       <c r="D41">
-        <v>0.02689632825369395</v>
+        <v>-7.124511460480251e-05</v>
       </c>
       <c r="E41">
-        <v>0.02107073880871088</v>
+        <v>-0.01040345974256289</v>
       </c>
       <c r="F41">
-        <v>0.007588371647324436</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.00983393523582512</v>
+      </c>
+      <c r="G41">
+        <v>0.04213890351258929</v>
+      </c>
+      <c r="H41">
+        <v>-0.03432819515226537</v>
+      </c>
+      <c r="I41">
+        <v>0.02287296615664731</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1317429413627085</v>
+        <v>-0.2251938562958569</v>
       </c>
       <c r="C42">
-        <v>0.2195274393406989</v>
+        <v>-0.2736688630474808</v>
       </c>
       <c r="D42">
-        <v>-0.9317317749158116</v>
+        <v>-0.05589065282057554</v>
       </c>
       <c r="E42">
-        <v>-0.009630122212105045</v>
+        <v>0.9029850810293787</v>
       </c>
       <c r="F42">
-        <v>0.0955476955740958</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1581880028954634</v>
+      </c>
+      <c r="G42">
+        <v>-0.008286661464787896</v>
+      </c>
+      <c r="H42">
+        <v>0.01145729104550997</v>
+      </c>
+      <c r="I42">
+        <v>0.06112546717323492</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.006204384783215446</v>
+        <v>-0.008310410886137959</v>
       </c>
       <c r="C43">
-        <v>0.03323131744075056</v>
+        <v>-0.01331505515436329</v>
       </c>
       <c r="D43">
-        <v>0.02073758504561771</v>
+        <v>-0.002639937081336221</v>
       </c>
       <c r="E43">
-        <v>0.02846375145166443</v>
+        <v>-0.009699152785475054</v>
       </c>
       <c r="F43">
-        <v>-0.02025072314926263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.02461096744369252</v>
+      </c>
+      <c r="G43">
+        <v>0.03423626243595607</v>
+      </c>
+      <c r="H43">
+        <v>-0.01980387125470519</v>
+      </c>
+      <c r="I43">
+        <v>0.02247444815862775</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04286930161127984</v>
+        <v>-0.02925341997858675</v>
       </c>
       <c r="C44">
-        <v>0.04852929592988352</v>
+        <v>-0.03945159756340034</v>
       </c>
       <c r="D44">
-        <v>0.01687422664866899</v>
+        <v>0.001984420003283999</v>
       </c>
       <c r="E44">
-        <v>0.06402865674233783</v>
+        <v>-0.01463158714274948</v>
       </c>
       <c r="F44">
-        <v>-0.1071540274129413</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1174321200428452</v>
+      </c>
+      <c r="G44">
+        <v>0.09863328221397982</v>
+      </c>
+      <c r="H44">
+        <v>-0.04797840013821307</v>
+      </c>
+      <c r="I44">
+        <v>0.04890433947999536</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03067271525494602</v>
+        <v>-0.02541271383924135</v>
       </c>
       <c r="C46">
-        <v>0.03011896106398431</v>
+        <v>-0.03457186521421597</v>
       </c>
       <c r="D46">
-        <v>0.03401776133826765</v>
+        <v>-0.003077615067391938</v>
       </c>
       <c r="E46">
-        <v>0.03208618478642795</v>
+        <v>-0.03240468747822183</v>
       </c>
       <c r="F46">
-        <v>-0.01294659151112374</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04358492917723399</v>
+      </c>
+      <c r="G46">
+        <v>0.06135093847519858</v>
+      </c>
+      <c r="H46">
+        <v>-0.0121375696443027</v>
+      </c>
+      <c r="I46">
+        <v>0.004907241842828402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09617476863690209</v>
+        <v>-0.08725108572316141</v>
       </c>
       <c r="C47">
-        <v>0.01468857597441635</v>
+        <v>-0.01821484020961294</v>
       </c>
       <c r="D47">
-        <v>0.02215216229108178</v>
+        <v>-0.005074021298890232</v>
       </c>
       <c r="E47">
-        <v>0.005342433177502598</v>
+        <v>-0.0270378320224417</v>
       </c>
       <c r="F47">
-        <v>0.02869205343727418</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01607771216520302</v>
+      </c>
+      <c r="G47">
+        <v>0.06021934906984707</v>
+      </c>
+      <c r="H47">
+        <v>-0.02495910443947792</v>
+      </c>
+      <c r="I47">
+        <v>0.03284046103476105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02080867752313513</v>
+        <v>-0.02072955832288297</v>
       </c>
       <c r="C48">
-        <v>0.02702280172033857</v>
+        <v>-0.01985732590242485</v>
       </c>
       <c r="D48">
-        <v>0.01838265540301509</v>
+        <v>0.0008982212541626574</v>
       </c>
       <c r="E48">
-        <v>0.0238076479847489</v>
+        <v>-0.01516880390281042</v>
       </c>
       <c r="F48">
-        <v>-0.0171814459546792</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02450999878168059</v>
+      </c>
+      <c r="G48">
+        <v>0.02621900089874192</v>
+      </c>
+      <c r="H48">
+        <v>-0.01371101725129124</v>
+      </c>
+      <c r="I48">
+        <v>0.01296020560803118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.0923436502532748</v>
+        <v>-0.08796526602621178</v>
       </c>
       <c r="C50">
-        <v>0.03837410945830663</v>
+        <v>-0.03965437788327739</v>
       </c>
       <c r="D50">
-        <v>0.02444211441185635</v>
+        <v>0.01040363780908901</v>
       </c>
       <c r="E50">
-        <v>0.02358641132232969</v>
+        <v>-0.02774212699928461</v>
       </c>
       <c r="F50">
-        <v>0.03349305791922537</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.00809460956255475</v>
+      </c>
+      <c r="G50">
+        <v>0.03482377128423932</v>
+      </c>
+      <c r="H50">
+        <v>0.01243676335612676</v>
+      </c>
+      <c r="I50">
+        <v>-0.005669573319905823</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05854874979753369</v>
+        <v>-0.03881916940534264</v>
       </c>
       <c r="C51">
-        <v>-0.01098198518739923</v>
+        <v>0.004409047048505282</v>
       </c>
       <c r="D51">
-        <v>0.006842447505170775</v>
+        <v>-0.01103898234119606</v>
       </c>
       <c r="E51">
-        <v>0.06891550090549264</v>
+        <v>-0.01064332836428125</v>
       </c>
       <c r="F51">
-        <v>-0.05015590561798675</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.09144433666642472</v>
+      </c>
+      <c r="G51">
+        <v>0.06846609794919367</v>
+      </c>
+      <c r="H51">
+        <v>-0.04857720839608928</v>
+      </c>
+      <c r="I51">
+        <v>0.02206549614711059</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1367901748418651</v>
+        <v>-0.1247375559025394</v>
       </c>
       <c r="C53">
-        <v>0.03088584154512519</v>
+        <v>-0.03801830027297354</v>
       </c>
       <c r="D53">
-        <v>0.04463584400242532</v>
+        <v>-0.005549602893588647</v>
       </c>
       <c r="E53">
-        <v>0.001934805026842492</v>
+        <v>-0.05716074530238157</v>
       </c>
       <c r="F53">
-        <v>0.0631827009916867</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.04863101722076113</v>
+      </c>
+      <c r="G53">
+        <v>0.006543393658127753</v>
+      </c>
+      <c r="H53">
+        <v>-0.02962269014013097</v>
+      </c>
+      <c r="I53">
+        <v>0.04185891619319211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.0294032484893166</v>
+        <v>-0.02659433208577926</v>
       </c>
       <c r="C54">
-        <v>0.01082137381040026</v>
+        <v>-0.005021405416669455</v>
       </c>
       <c r="D54">
-        <v>0.0326174205506087</v>
+        <v>0.005294475272527537</v>
       </c>
       <c r="E54">
-        <v>0.0248524306128551</v>
+        <v>-0.02814306062080051</v>
       </c>
       <c r="F54">
-        <v>-0.02086716954674219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02971850968856001</v>
+      </c>
+      <c r="G54">
+        <v>0.0566313149356615</v>
+      </c>
+      <c r="H54">
+        <v>-0.0292300269039371</v>
+      </c>
+      <c r="I54">
+        <v>0.02139665904640566</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1002780196279472</v>
+        <v>-0.09736555862773184</v>
       </c>
       <c r="C55">
-        <v>0.006902469605092085</v>
+        <v>-0.03216542790323797</v>
       </c>
       <c r="D55">
-        <v>0.03925698560028566</v>
+        <v>0.01260430602153964</v>
       </c>
       <c r="E55">
-        <v>-0.03820588483905087</v>
+        <v>-0.03748546284824425</v>
       </c>
       <c r="F55">
-        <v>0.01349744486235739</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.03553314258785698</v>
+      </c>
+      <c r="G55">
+        <v>0.01880264455224245</v>
+      </c>
+      <c r="H55">
+        <v>0.009572031340811081</v>
+      </c>
+      <c r="I55">
+        <v>0.01388397626452689</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1743035581640099</v>
+        <v>-0.1636509278356858</v>
       </c>
       <c r="C56">
-        <v>-0.008935866548082294</v>
+        <v>-0.01981807620965883</v>
       </c>
       <c r="D56">
-        <v>0.08357299005849839</v>
+        <v>-0.0005646886874680199</v>
       </c>
       <c r="E56">
-        <v>-0.04904808094687153</v>
+        <v>-0.08902664505942057</v>
       </c>
       <c r="F56">
-        <v>0.09708986494431177</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09300938483559545</v>
+      </c>
+      <c r="G56">
+        <v>-0.04650122573218123</v>
+      </c>
+      <c r="H56">
+        <v>0.005923552463971517</v>
+      </c>
+      <c r="I56">
+        <v>0.04456450833606293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08298414168493953</v>
+        <v>-0.06617153607043867</v>
       </c>
       <c r="C57">
-        <v>0.03277263240150038</v>
+        <v>-0.03285367901656618</v>
       </c>
       <c r="D57">
-        <v>0.01662064658669994</v>
+        <v>-0.01939719341927614</v>
       </c>
       <c r="E57">
-        <v>0.05436537208752314</v>
+        <v>-0.006706107714193486</v>
       </c>
       <c r="F57">
-        <v>-0.0266441629956902</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.06555480660132808</v>
+      </c>
+      <c r="G57">
+        <v>0.02484855201248169</v>
+      </c>
+      <c r="H57">
+        <v>-0.01625262942162572</v>
+      </c>
+      <c r="I57">
+        <v>0.01199268409244218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1969113153675636</v>
+        <v>-0.2085265128717335</v>
       </c>
       <c r="C58">
-        <v>0.03497443456998531</v>
+        <v>-0.1036717615283141</v>
       </c>
       <c r="D58">
-        <v>-0.001416038062659309</v>
+        <v>-0.0916123480595831</v>
       </c>
       <c r="E58">
-        <v>0.07993643701623418</v>
+        <v>0.005322178522723348</v>
       </c>
       <c r="F58">
-        <v>-0.1066958974752798</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2707203216500721</v>
+      </c>
+      <c r="G58">
+        <v>0.3510487362963681</v>
+      </c>
+      <c r="H58">
+        <v>0.3550187672849908</v>
+      </c>
+      <c r="I58">
+        <v>-0.4136232640249873</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02694072130296519</v>
+        <v>-0.05303650892657331</v>
       </c>
       <c r="C59">
-        <v>-0.1992397745737007</v>
+        <v>0.1986454615806252</v>
       </c>
       <c r="D59">
-        <v>-0.0004342589466063749</v>
+        <v>-0.0185243371056602</v>
       </c>
       <c r="E59">
-        <v>0.02931225130232318</v>
+        <v>0.01652813456209574</v>
       </c>
       <c r="F59">
-        <v>-0.03875322695023837</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.06634592646674523</v>
+      </c>
+      <c r="G59">
+        <v>-0.01544074356791848</v>
+      </c>
+      <c r="H59">
+        <v>-0.01690838127914023</v>
+      </c>
+      <c r="I59">
+        <v>0.04872161762897094</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1893736750127252</v>
+        <v>-0.1911687456653053</v>
       </c>
       <c r="C60">
-        <v>-0.08221308911960992</v>
+        <v>0.05114310433032759</v>
       </c>
       <c r="D60">
-        <v>0.004304698905493115</v>
+        <v>-0.05133042289344616</v>
       </c>
       <c r="E60">
-        <v>0.1069873645065769</v>
+        <v>-0.01129257003810228</v>
       </c>
       <c r="F60">
-        <v>-0.1508166382778535</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1997079267052055</v>
+      </c>
+      <c r="G60">
+        <v>-0.303484553475033</v>
+      </c>
+      <c r="H60">
+        <v>-0.02952341365235119</v>
+      </c>
+      <c r="I60">
+        <v>-0.08189280665965608</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04225231848786699</v>
+        <v>-0.03835340646923143</v>
       </c>
       <c r="C61">
-        <v>0.01267254871056862</v>
+        <v>-0.02946403157908445</v>
       </c>
       <c r="D61">
-        <v>0.002450444106970979</v>
+        <v>0.00114487940460362</v>
       </c>
       <c r="E61">
-        <v>0.01168090688482286</v>
+        <v>-0.008004817579272192</v>
       </c>
       <c r="F61">
-        <v>-0.03183598256173385</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03744816001606591</v>
+      </c>
+      <c r="G61">
+        <v>0.0009572768153009225</v>
+      </c>
+      <c r="H61">
+        <v>-0.01428964572385396</v>
+      </c>
+      <c r="I61">
+        <v>-0.03276094393274409</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04265623318720568</v>
+        <v>-0.03146452309661802</v>
       </c>
       <c r="C63">
-        <v>0.0198996208333303</v>
+        <v>-0.02289058355821758</v>
       </c>
       <c r="D63">
-        <v>0.01431672200044225</v>
+        <v>-0.001984752287821874</v>
       </c>
       <c r="E63">
-        <v>0.03300784026485731</v>
+        <v>-0.01586926567723534</v>
       </c>
       <c r="F63">
-        <v>-0.02538904724455458</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02753736760696616</v>
+      </c>
+      <c r="G63">
+        <v>0.04898342036928696</v>
+      </c>
+      <c r="H63">
+        <v>-0.001385104874033132</v>
+      </c>
+      <c r="I63">
+        <v>0.03503292468357632</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.07426864427159782</v>
+        <v>-0.06007783461280349</v>
       </c>
       <c r="C64">
-        <v>0.05285609193705695</v>
+        <v>-0.04363794059323923</v>
       </c>
       <c r="D64">
-        <v>0.05804478074646723</v>
+        <v>0.01409349946556269</v>
       </c>
       <c r="E64">
-        <v>-0.01855233308194858</v>
+        <v>-0.04390188232584701</v>
       </c>
       <c r="F64">
-        <v>-0.04016766251420555</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04081179350232514</v>
+      </c>
+      <c r="G64">
+        <v>0.0125962275392694</v>
+      </c>
+      <c r="H64">
+        <v>-0.0728166671059477</v>
+      </c>
+      <c r="I64">
+        <v>0.03546624595677116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02262779022303885</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.01089933981916727</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.005371247366975791</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.00629788846566322</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.00401712285667293</v>
+      </c>
+      <c r="G65">
+        <v>-0.01594467945691219</v>
+      </c>
+      <c r="H65">
+        <v>0.01849193625787972</v>
+      </c>
+      <c r="I65">
+        <v>-0.01626663888337427</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.07895524253982919</v>
+        <v>-0.06778229905734816</v>
       </c>
       <c r="C66">
-        <v>0.03845105503300943</v>
+        <v>-0.05495632508790831</v>
       </c>
       <c r="D66">
-        <v>0.03293270561789657</v>
+        <v>-0.01262560556074989</v>
       </c>
       <c r="E66">
-        <v>0.03966239354510351</v>
+        <v>-0.04818184415279508</v>
       </c>
       <c r="F66">
-        <v>-0.06684298385325804</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06773451679752332</v>
+      </c>
+      <c r="G66">
+        <v>0.0005807690330023038</v>
+      </c>
+      <c r="H66">
+        <v>-0.009334175723562323</v>
+      </c>
+      <c r="I66">
+        <v>-0.008611706095176058</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.0562079477833963</v>
+        <v>-0.0484167672823997</v>
       </c>
       <c r="C67">
-        <v>-0.004175914627095389</v>
+        <v>0.002545885104197014</v>
       </c>
       <c r="D67">
-        <v>0.01008323313999873</v>
+        <v>-0.001565648418734732</v>
       </c>
       <c r="E67">
-        <v>0.009690343892734469</v>
+        <v>-0.008605811480698208</v>
       </c>
       <c r="F67">
-        <v>-0.01692654164887771</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03766360040126574</v>
+      </c>
+      <c r="G67">
+        <v>0.01079582039178445</v>
+      </c>
+      <c r="H67">
+        <v>-0.04040536614194191</v>
+      </c>
+      <c r="I67">
+        <v>-0.03877754609583813</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.039433390925406</v>
+        <v>-0.06383892788610764</v>
       </c>
       <c r="C68">
-        <v>-0.2420980347585502</v>
+        <v>0.2339174358340438</v>
       </c>
       <c r="D68">
-        <v>-0.01853202164039163</v>
+        <v>-0.01846805799203428</v>
       </c>
       <c r="E68">
-        <v>0.02773327853539812</v>
+        <v>0.03662821705447319</v>
       </c>
       <c r="F68">
-        <v>-0.02810901385290187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.04719605428878522</v>
+      </c>
+      <c r="G68">
+        <v>-0.005916210763402663</v>
+      </c>
+      <c r="H68">
+        <v>0.006082284131420056</v>
+      </c>
+      <c r="I68">
+        <v>0.1205123040787919</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07626821453554991</v>
+        <v>-0.07258504691781451</v>
       </c>
       <c r="C69">
-        <v>0.01301662146301318</v>
+        <v>-0.01970322505052643</v>
       </c>
       <c r="D69">
-        <v>0.02603693435215385</v>
+        <v>-0.00602018003884843</v>
       </c>
       <c r="E69">
-        <v>0.006743005714929094</v>
+        <v>-0.03129622774087145</v>
       </c>
       <c r="F69">
-        <v>0.02044323896296142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.004200284365531235</v>
+      </c>
+      <c r="G69">
+        <v>0.03618384555604938</v>
+      </c>
+      <c r="H69">
+        <v>-0.01903772224962401</v>
+      </c>
+      <c r="I69">
+        <v>0.00603427103197685</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.03468857358347791</v>
+        <v>-0.05874234293210267</v>
       </c>
       <c r="C71">
-        <v>-0.2825307570411579</v>
+        <v>0.251770795658363</v>
       </c>
       <c r="D71">
-        <v>-0.03321929485183741</v>
+        <v>-0.02212425087859028</v>
       </c>
       <c r="E71">
-        <v>0.07796937863608873</v>
+        <v>0.06346967881586019</v>
       </c>
       <c r="F71">
-        <v>-0.0450178873169149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.06556063113142638</v>
+      </c>
+      <c r="G71">
+        <v>0.00269787035959393</v>
+      </c>
+      <c r="H71">
+        <v>-0.02252915479550767</v>
+      </c>
+      <c r="I71">
+        <v>0.1071090661942925</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1313431673059242</v>
+        <v>-0.1242181534417438</v>
       </c>
       <c r="C72">
-        <v>-0.02029012810694214</v>
+        <v>-0.03055017064218602</v>
       </c>
       <c r="D72">
-        <v>0.04966332174154376</v>
+        <v>-0.004767320344942516</v>
       </c>
       <c r="E72">
-        <v>0.0175699834542164</v>
+        <v>-0.0692797215355052</v>
       </c>
       <c r="F72">
-        <v>-0.06556457672729328</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.08119115851692764</v>
+      </c>
+      <c r="G72">
+        <v>-0.02716305767001882</v>
+      </c>
+      <c r="H72">
+        <v>0.04078367506366708</v>
+      </c>
+      <c r="I72">
+        <v>-0.1221367177789682</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2911586641666116</v>
+        <v>-0.2746967078820693</v>
       </c>
       <c r="C73">
-        <v>-0.178816668096013</v>
+        <v>0.07981896245446034</v>
       </c>
       <c r="D73">
-        <v>-0.05904875578805673</v>
+        <v>-0.08965556095170063</v>
       </c>
       <c r="E73">
-        <v>0.162405141215141</v>
+        <v>0.03937414086741341</v>
       </c>
       <c r="F73">
-        <v>-0.3047802452924694</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.315502539003387</v>
+      </c>
+      <c r="G73">
+        <v>-0.4954517359842505</v>
+      </c>
+      <c r="H73">
+        <v>0.0199598658381504</v>
+      </c>
+      <c r="I73">
+        <v>-0.2450140943101293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.155154969126661</v>
+        <v>-0.149707759785524</v>
       </c>
       <c r="C74">
-        <v>0.02194925699010554</v>
+        <v>-0.03512558885043492</v>
       </c>
       <c r="D74">
-        <v>0.03849430176833508</v>
+        <v>-0.01254215196629083</v>
       </c>
       <c r="E74">
-        <v>0.003097305037888231</v>
+        <v>-0.05123023386537524</v>
       </c>
       <c r="F74">
-        <v>0.05215765205168624</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06489826611646336</v>
+      </c>
+      <c r="G74">
+        <v>-0.02745011629764555</v>
+      </c>
+      <c r="H74">
+        <v>0.0034344160391941</v>
+      </c>
+      <c r="I74">
+        <v>0.03845943379509948</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2368905644068477</v>
+        <v>-0.2422300435366985</v>
       </c>
       <c r="C75">
-        <v>0.01132337980114264</v>
+        <v>-0.02610909963362915</v>
       </c>
       <c r="D75">
-        <v>0.07546501593675875</v>
+        <v>-0.02793281312271107</v>
       </c>
       <c r="E75">
-        <v>-0.01638017236594258</v>
+        <v>-0.1172410691958478</v>
       </c>
       <c r="F75">
-        <v>0.1485184977436045</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1485271404881339</v>
+      </c>
+      <c r="G75">
+        <v>-0.02282057703202071</v>
+      </c>
+      <c r="H75">
+        <v>-0.01326473169813485</v>
+      </c>
+      <c r="I75">
+        <v>0.07791281007237616</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2493944736623365</v>
+        <v>-0.2623528162192948</v>
       </c>
       <c r="C76">
-        <v>-0.02283058760191756</v>
+        <v>-0.01413547289393257</v>
       </c>
       <c r="D76">
-        <v>0.1072010453310553</v>
+        <v>0.01218981979524763</v>
       </c>
       <c r="E76">
-        <v>-0.07745165364228668</v>
+        <v>-0.1396570807384345</v>
       </c>
       <c r="F76">
-        <v>0.1212261764741581</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1839303629389298</v>
+      </c>
+      <c r="G76">
+        <v>-0.05103041425085811</v>
+      </c>
+      <c r="H76">
+        <v>0.05798850180270497</v>
+      </c>
+      <c r="I76">
+        <v>0.0512827741776663</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1347591297275425</v>
+        <v>-0.1204694779683538</v>
       </c>
       <c r="C77">
-        <v>0.06353197791697399</v>
+        <v>-0.07688638239180666</v>
       </c>
       <c r="D77">
-        <v>-0.03327237660959206</v>
+        <v>-0.007854058679944256</v>
       </c>
       <c r="E77">
-        <v>0.03678245882056585</v>
+        <v>0.03043502070762836</v>
       </c>
       <c r="F77">
-        <v>-0.1573560286111708</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1573406434785912</v>
+      </c>
+      <c r="G77">
+        <v>0.1812419187638667</v>
+      </c>
+      <c r="H77">
+        <v>0.03427967721877245</v>
+      </c>
+      <c r="I77">
+        <v>0.2859756557108153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.09560573252309884</v>
+        <v>-0.07380060369896317</v>
       </c>
       <c r="C78">
-        <v>0.06399547029691131</v>
+        <v>-0.07560487267554365</v>
       </c>
       <c r="D78">
-        <v>-0.0112285261296428</v>
+        <v>0.004619370194396622</v>
       </c>
       <c r="E78">
-        <v>0.009387750814012503</v>
+        <v>-0.01238553116814143</v>
       </c>
       <c r="F78">
-        <v>-0.05296726445910859</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.06946913678863685</v>
+      </c>
+      <c r="G78">
+        <v>0.01588935581141404</v>
+      </c>
+      <c r="H78">
+        <v>-0.01403769660221776</v>
+      </c>
+      <c r="I78">
+        <v>0.0396645540218767</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.06331847048640489</v>
+        <v>-0.1370251206944172</v>
       </c>
       <c r="C80">
-        <v>-0.03334298529378797</v>
+        <v>0.04359747734780537</v>
       </c>
       <c r="D80">
-        <v>-0.02835857041545397</v>
+        <v>0.9748186366408133</v>
       </c>
       <c r="E80">
-        <v>-0.8996323044257361</v>
+        <v>0.05985281529167782</v>
       </c>
       <c r="F80">
-        <v>-0.3356486861334468</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.04661932616304416</v>
+      </c>
+      <c r="G80">
+        <v>-0.03167606027551544</v>
+      </c>
+      <c r="H80">
+        <v>-0.03862008132183095</v>
+      </c>
+      <c r="I80">
+        <v>-0.06566827770949422</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1604682139162205</v>
+        <v>-0.1786566381865035</v>
       </c>
       <c r="C81">
-        <v>0.00994855446606651</v>
+        <v>-0.01031844947960418</v>
       </c>
       <c r="D81">
-        <v>0.05239727253378924</v>
+        <v>-0.006562029336222159</v>
       </c>
       <c r="E81">
-        <v>-0.05142491029969969</v>
+        <v>-0.08635570668175407</v>
       </c>
       <c r="F81">
-        <v>0.167870901037413</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1587564752244148</v>
+      </c>
+      <c r="G81">
+        <v>-0.005658587171015117</v>
+      </c>
+      <c r="H81">
+        <v>0.02437258992410335</v>
+      </c>
+      <c r="I81">
+        <v>0.04109794258483272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09093103622807207</v>
+        <v>-0.06823815343164907</v>
       </c>
       <c r="C83">
-        <v>0.0765246465567346</v>
+        <v>-0.05804384886655301</v>
       </c>
       <c r="D83">
-        <v>-0.06627907367531244</v>
+        <v>-0.01417897369058246</v>
       </c>
       <c r="E83">
-        <v>0.04450264801190838</v>
+        <v>0.0335199841371128</v>
       </c>
       <c r="F83">
-        <v>-0.0003537902887381546</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04599938674233091</v>
+      </c>
+      <c r="G83">
+        <v>0.04974364250754349</v>
+      </c>
+      <c r="H83">
+        <v>-0.06165643679083378</v>
+      </c>
+      <c r="I83">
+        <v>0.04147651119134908</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2386153705290789</v>
+        <v>-0.24737378783485</v>
       </c>
       <c r="C85">
-        <v>0.0472864365003593</v>
+        <v>-0.05414969422751092</v>
       </c>
       <c r="D85">
-        <v>0.07016847454874241</v>
+        <v>-0.006681198218251319</v>
       </c>
       <c r="E85">
-        <v>-0.08277282642328795</v>
+        <v>-0.113062091004637</v>
       </c>
       <c r="F85">
-        <v>0.1392355059430837</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1843866231102421</v>
+      </c>
+      <c r="G85">
+        <v>0.003885591842404599</v>
+      </c>
+      <c r="H85">
+        <v>0.02166739433753738</v>
+      </c>
+      <c r="I85">
+        <v>0.06748938868175798</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04137526155500613</v>
+        <v>-0.02756271404198652</v>
       </c>
       <c r="C86">
-        <v>0.04814992602976927</v>
+        <v>-0.05094063664380939</v>
       </c>
       <c r="D86">
-        <v>0.006259860894901668</v>
+        <v>-0.00160914314008883</v>
       </c>
       <c r="E86">
-        <v>0.02993794451722546</v>
+        <v>-0.01721556017505583</v>
       </c>
       <c r="F86">
-        <v>-0.06423446574666211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08108951665992836</v>
+      </c>
+      <c r="G86">
+        <v>0.06676054219298619</v>
+      </c>
+      <c r="H86">
+        <v>-0.003576565844282881</v>
+      </c>
+      <c r="I86">
+        <v>0.02912483917241648</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02412088712491418</v>
+        <v>-0.03045130067840256</v>
       </c>
       <c r="C87">
-        <v>-0.04958907054712409</v>
+        <v>0.008482549560297224</v>
       </c>
       <c r="D87">
-        <v>-0.004662559360517729</v>
+        <v>0.003571281765635325</v>
       </c>
       <c r="E87">
-        <v>0.01774255598824478</v>
+        <v>0.004185517332298157</v>
       </c>
       <c r="F87">
-        <v>-0.09674749294119586</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1004775985552063</v>
+      </c>
+      <c r="G87">
+        <v>0.02586336346788914</v>
+      </c>
+      <c r="H87">
+        <v>0.01395716041797029</v>
+      </c>
+      <c r="I87">
+        <v>-0.007950454958100558</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.02886492018548224</v>
+        <v>-0.03187575155842044</v>
       </c>
       <c r="C88">
-        <v>0.02734454389351123</v>
+        <v>-0.009289541307904464</v>
       </c>
       <c r="D88">
-        <v>0.004330974910015867</v>
+        <v>0.006988327989828042</v>
       </c>
       <c r="E88">
-        <v>-0.01195475268499672</v>
+        <v>-0.006414222569782647</v>
       </c>
       <c r="F88">
-        <v>0.00736160764296045</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01335427685023575</v>
+      </c>
+      <c r="G88">
+        <v>0.03227455939870123</v>
+      </c>
+      <c r="H88">
+        <v>-0.04134785264689259</v>
+      </c>
+      <c r="I88">
+        <v>-0.01053895495129741</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.03791339944848966</v>
+        <v>-0.09319648827052127</v>
       </c>
       <c r="C89">
-        <v>-0.3878200884056111</v>
+        <v>0.3872273602513028</v>
       </c>
       <c r="D89">
-        <v>-0.09729103820633694</v>
+        <v>-0.04888705860630198</v>
       </c>
       <c r="E89">
-        <v>0.04946533870071197</v>
+        <v>0.08043532906895534</v>
       </c>
       <c r="F89">
-        <v>0.01992971651470272</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.03102467893058385</v>
+      </c>
+      <c r="G89">
+        <v>0.06638196525293377</v>
+      </c>
+      <c r="H89">
+        <v>-0.03226322424111783</v>
+      </c>
+      <c r="I89">
+        <v>0.2107598487492278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.02755558407220484</v>
+        <v>-0.05973555583344123</v>
       </c>
       <c r="C90">
-        <v>-0.2982109227400053</v>
+        <v>0.316939736459908</v>
       </c>
       <c r="D90">
-        <v>-0.0502530648292745</v>
+        <v>-0.02168099177450796</v>
       </c>
       <c r="E90">
-        <v>0.007803044487912217</v>
+        <v>0.06391745424508861</v>
       </c>
       <c r="F90">
-        <v>-0.04695984813913122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.03071475153940881</v>
+      </c>
+      <c r="G90">
+        <v>0.01579128538768592</v>
+      </c>
+      <c r="H90">
+        <v>-0.01099192017728988</v>
+      </c>
+      <c r="I90">
+        <v>0.1747740387699211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2738683317543915</v>
+        <v>-0.2861570843016554</v>
       </c>
       <c r="C91">
-        <v>0.05227840387248023</v>
+        <v>-0.05925159028267186</v>
       </c>
       <c r="D91">
-        <v>0.07823806667679015</v>
+        <v>-0.01530681418181421</v>
       </c>
       <c r="E91">
-        <v>-0.1202228778862325</v>
+        <v>-0.1091631588156373</v>
       </c>
       <c r="F91">
-        <v>0.2505138837412594</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2755572863424569</v>
+      </c>
+      <c r="G91">
+        <v>-0.01748595508296569</v>
+      </c>
+      <c r="H91">
+        <v>0.04565715287554975</v>
+      </c>
+      <c r="I91">
+        <v>0.08863876576363944</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.06448248883295164</v>
+        <v>-0.1337149737859523</v>
       </c>
       <c r="C92">
-        <v>-0.3977118111061748</v>
+        <v>0.402387497859324</v>
       </c>
       <c r="D92">
-        <v>-0.1557870476658086</v>
+        <v>-0.008859153734880755</v>
       </c>
       <c r="E92">
-        <v>-0.09998355818039469</v>
+        <v>0.1102501533489486</v>
       </c>
       <c r="F92">
-        <v>0.1030514252869268</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1181523870035183</v>
+      </c>
+      <c r="G92">
+        <v>0.4385193236795932</v>
+      </c>
+      <c r="H92">
+        <v>0.04374084612164418</v>
+      </c>
+      <c r="I92">
+        <v>-0.4856926995105342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.02472651200269278</v>
+        <v>-0.0786228582866416</v>
       </c>
       <c r="C93">
-        <v>-0.3693584481965748</v>
+        <v>0.3898324786920292</v>
       </c>
       <c r="D93">
-        <v>-0.08097942747280158</v>
+        <v>-0.03972476005994019</v>
       </c>
       <c r="E93">
-        <v>-0.0007512124929701225</v>
+        <v>0.1091136696361569</v>
       </c>
       <c r="F93">
-        <v>0.02539548566636331</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.003240909318504517</v>
+      </c>
+      <c r="G93">
+        <v>-0.006215153342011726</v>
+      </c>
+      <c r="H93">
+        <v>-0.05121097241590343</v>
+      </c>
+      <c r="I93">
+        <v>0.09914560017687296</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2857328142561156</v>
+        <v>-0.3083513416480331</v>
       </c>
       <c r="C94">
-        <v>-0.0751285551159135</v>
+        <v>0.02955821430904546</v>
       </c>
       <c r="D94">
-        <v>0.03080258443085546</v>
+        <v>-0.04039947406576705</v>
       </c>
       <c r="E94">
-        <v>-0.1439583647582453</v>
+        <v>-0.1234088488202422</v>
       </c>
       <c r="F94">
-        <v>0.3230609368790696</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3196570308042365</v>
+      </c>
+      <c r="G94">
+        <v>0.04757836329092872</v>
+      </c>
+      <c r="H94">
+        <v>0.2207020841488739</v>
+      </c>
+      <c r="I94">
+        <v>0.03315375253390938</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1640271752357909</v>
+        <v>-0.1315696733370423</v>
       </c>
       <c r="C95">
-        <v>0.04994090059490264</v>
+        <v>-0.05616987403460492</v>
       </c>
       <c r="D95">
-        <v>-0.0007814485216078739</v>
+        <v>-0.08485915534117626</v>
       </c>
       <c r="E95">
-        <v>0.01854722769276829</v>
+        <v>-0.02904820283077665</v>
       </c>
       <c r="F95">
-        <v>0.3793396541472601</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1059999974328084</v>
+      </c>
+      <c r="G95">
+        <v>0.1212759573634961</v>
+      </c>
+      <c r="H95">
+        <v>-0.8707860643639077</v>
+      </c>
+      <c r="I95">
+        <v>-0.2476518603826019</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2166160923095714</v>
+        <v>-0.2090827300715464</v>
       </c>
       <c r="C98">
-        <v>-0.09256605878747386</v>
+        <v>0.0597032993294509</v>
       </c>
       <c r="D98">
-        <v>-0.04364033924066439</v>
+        <v>-0.06332545140319587</v>
       </c>
       <c r="E98">
-        <v>0.09422613607170047</v>
+        <v>0.02751771208491288</v>
       </c>
       <c r="F98">
-        <v>-0.06136945355139246</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1679179959148172</v>
+      </c>
+      <c r="G98">
+        <v>-0.3348290235213108</v>
+      </c>
+      <c r="H98">
+        <v>-0.01968126351440324</v>
+      </c>
+      <c r="I98">
+        <v>-0.1511474215724177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.02785294931496786</v>
+        <v>-0.01772380685105644</v>
       </c>
       <c r="C101">
-        <v>0.02545734972649538</v>
+        <v>-0.02844321870250382</v>
       </c>
       <c r="D101">
-        <v>0.03433062835958676</v>
+        <v>0.004922224994540596</v>
       </c>
       <c r="E101">
-        <v>0.01674697214924055</v>
+        <v>-0.0361729929987947</v>
       </c>
       <c r="F101">
-        <v>-0.02495384919571511</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.06253512086388234</v>
+      </c>
+      <c r="G101">
+        <v>0.1126900912087544</v>
+      </c>
+      <c r="H101">
+        <v>0.02863854881406107</v>
+      </c>
+      <c r="I101">
+        <v>-0.08525602856771988</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1091620026420277</v>
+        <v>-0.1164163590448514</v>
       </c>
       <c r="C102">
-        <v>0.03350204159404074</v>
+        <v>-0.02878692599489117</v>
       </c>
       <c r="D102">
-        <v>0.04263647641370592</v>
+        <v>0.005165763438054932</v>
       </c>
       <c r="E102">
-        <v>-0.05872325461524078</v>
+        <v>-0.0556678854132542</v>
       </c>
       <c r="F102">
-        <v>0.08295162841068895</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1148794259558252</v>
+      </c>
+      <c r="G102">
+        <v>-0.007701798616451232</v>
+      </c>
+      <c r="H102">
+        <v>0.002311662364114747</v>
+      </c>
+      <c r="I102">
+        <v>0.07134764756158021</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02220943192237542</v>
+        <v>-0.02906412573068124</v>
       </c>
       <c r="C103">
-        <v>0.00904202953358387</v>
+        <v>-0.008059231753213415</v>
       </c>
       <c r="D103">
-        <v>0.01248918057040506</v>
+        <v>0.008733940154763987</v>
       </c>
       <c r="E103">
-        <v>-0.00440134820516584</v>
+        <v>-0.01897520807789794</v>
       </c>
       <c r="F103">
-        <v>0.03403048197065691</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.02640693178663316</v>
+      </c>
+      <c r="G103">
+        <v>0.01484303197391511</v>
+      </c>
+      <c r="H103">
+        <v>-0.009037773907578279</v>
+      </c>
+      <c r="I103">
+        <v>0.01948466156496205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
